--- a/data_year/zb/批发和零售业/连锁零售企业/按行业分连锁零售企业门店总数.xlsx
+++ b/data_year/zb/批发和零售业/连锁零售企业/按行业分连锁零售企业门店总数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,545 +483,409 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C2" t="n">
-        <v>18449</v>
+        <v>31049</v>
       </c>
       <c r="D2" t="n">
-        <v>2392</v>
+        <v>3165</v>
       </c>
       <c r="E2" t="n">
-        <v>3117</v>
+        <v>2018</v>
       </c>
       <c r="F2" t="n">
-        <v>136</v>
+        <v>458</v>
       </c>
       <c r="G2" t="n">
-        <v>12114</v>
+        <v>16428</v>
       </c>
       <c r="H2" t="n">
-        <v>3107</v>
+        <v>12184</v>
       </c>
       <c r="I2" t="n">
-        <v>33347</v>
+        <v>62657</v>
       </c>
       <c r="J2" t="n">
-        <v>3127</v>
+        <v>8553</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C3" t="n">
-        <v>21090</v>
+        <v>32486</v>
       </c>
       <c r="D3" t="n">
-        <v>2829</v>
+        <v>5144</v>
       </c>
       <c r="E3" t="n">
-        <v>2905</v>
+        <v>1643</v>
       </c>
       <c r="F3" t="n">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="G3" t="n">
-        <v>8962</v>
+        <v>13711</v>
       </c>
       <c r="H3" t="n">
-        <v>9660</v>
+        <v>18185</v>
       </c>
       <c r="I3" t="n">
-        <v>39688</v>
+        <v>63493</v>
       </c>
       <c r="J3" t="n">
-        <v>4998</v>
+        <v>7516</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C4" t="n">
-        <v>26412</v>
+        <v>35835</v>
       </c>
       <c r="D4" t="n">
-        <v>3428</v>
+        <v>6886</v>
       </c>
       <c r="E4" t="n">
-        <v>1554</v>
+        <v>1732</v>
       </c>
       <c r="F4" t="n">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="G4" t="n">
-        <v>7193</v>
+        <v>11999</v>
       </c>
       <c r="H4" t="n">
-        <v>12544</v>
+        <v>10507</v>
       </c>
       <c r="I4" t="n">
-        <v>48020</v>
+        <v>62948</v>
       </c>
       <c r="J4" t="n">
-        <v>4201</v>
+        <v>9047</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C5" t="n">
-        <v>30844</v>
+        <v>39319</v>
       </c>
       <c r="D5" t="n">
-        <v>4060</v>
+        <v>6982</v>
       </c>
       <c r="E5" t="n">
-        <v>1562</v>
+        <v>1651</v>
       </c>
       <c r="F5" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G5" t="n">
-        <v>7707</v>
+        <v>12792</v>
       </c>
       <c r="H5" t="n">
-        <v>13821</v>
+        <v>11858</v>
       </c>
       <c r="I5" t="n">
-        <v>52761</v>
+        <v>65022</v>
       </c>
       <c r="J5" t="n">
-        <v>4773</v>
+        <v>11865</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="C6" t="n">
-        <v>30543</v>
+        <v>41570</v>
       </c>
       <c r="D6" t="n">
-        <v>2949</v>
+        <v>6997</v>
       </c>
       <c r="E6" t="n">
-        <v>2093</v>
+        <v>1660</v>
       </c>
       <c r="F6" t="n">
-        <v>822</v>
+        <v>120</v>
       </c>
       <c r="G6" t="n">
-        <v>19583</v>
+        <v>13344</v>
       </c>
       <c r="H6" t="n">
-        <v>11192</v>
+        <v>11737</v>
       </c>
       <c r="I6" t="n">
-        <v>56568</v>
+        <v>67090</v>
       </c>
       <c r="J6" t="n">
-        <v>9105</v>
+        <v>12747</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="C7" t="n">
-        <v>31049</v>
+        <v>45063</v>
       </c>
       <c r="D7" t="n">
-        <v>3165</v>
+        <v>6897</v>
       </c>
       <c r="E7" t="n">
-        <v>2018</v>
+        <v>2181</v>
       </c>
       <c r="F7" t="n">
-        <v>458</v>
+        <v>650</v>
       </c>
       <c r="G7" t="n">
-        <v>16428</v>
+        <v>13783</v>
       </c>
       <c r="H7" t="n">
-        <v>12184</v>
+        <v>9699</v>
       </c>
       <c r="I7" t="n">
-        <v>62657</v>
+        <v>68534</v>
       </c>
       <c r="J7" t="n">
-        <v>8553</v>
+        <v>13236</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="C8" t="n">
-        <v>32486</v>
+        <v>51266</v>
       </c>
       <c r="D8" t="n">
-        <v>5144</v>
+        <v>7401</v>
       </c>
       <c r="E8" t="n">
-        <v>1643</v>
+        <v>1957</v>
       </c>
       <c r="F8" t="n">
-        <v>287</v>
+        <v>662</v>
       </c>
       <c r="G8" t="n">
-        <v>13711</v>
+        <v>13901</v>
       </c>
       <c r="H8" t="n">
-        <v>18185</v>
+        <v>14609</v>
       </c>
       <c r="I8" t="n">
-        <v>63493</v>
+        <v>70169</v>
       </c>
       <c r="J8" t="n">
-        <v>7516</v>
+        <v>23180</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>147</v>
+        <v>383</v>
       </c>
       <c r="C9" t="n">
-        <v>35835</v>
+        <v>63153</v>
       </c>
       <c r="D9" t="n">
-        <v>6886</v>
+        <v>7640</v>
       </c>
       <c r="E9" t="n">
-        <v>1732</v>
+        <v>1811</v>
       </c>
       <c r="F9" t="n">
-        <v>132</v>
+        <v>706</v>
       </c>
       <c r="G9" t="n">
-        <v>11999</v>
+        <v>15442</v>
       </c>
       <c r="H9" t="n">
-        <v>10507</v>
+        <v>18302</v>
       </c>
       <c r="I9" t="n">
-        <v>62948</v>
+        <v>67642</v>
       </c>
       <c r="J9" t="n">
-        <v>9047</v>
+        <v>22393</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163</v>
+        <v>447</v>
       </c>
       <c r="C10" t="n">
-        <v>39319</v>
+        <v>73632</v>
       </c>
       <c r="D10" t="n">
-        <v>6982</v>
+        <v>8299</v>
       </c>
       <c r="E10" t="n">
-        <v>1651</v>
+        <v>1790</v>
       </c>
       <c r="F10" t="n">
-        <v>184</v>
+        <v>784</v>
       </c>
       <c r="G10" t="n">
-        <v>12792</v>
+        <v>16770</v>
       </c>
       <c r="H10" t="n">
-        <v>11858</v>
+        <v>19539</v>
       </c>
       <c r="I10" t="n">
-        <v>65022</v>
+        <v>64899</v>
       </c>
       <c r="J10" t="n">
-        <v>11865</v>
+        <v>23306</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>185</v>
+        <v>471</v>
       </c>
       <c r="C11" t="n">
-        <v>41570</v>
+        <v>82642</v>
       </c>
       <c r="D11" t="n">
-        <v>6997</v>
+        <v>5878</v>
       </c>
       <c r="E11" t="n">
-        <v>1660</v>
+        <v>3227</v>
       </c>
       <c r="F11" t="n">
-        <v>120</v>
+        <v>866</v>
       </c>
       <c r="G11" t="n">
-        <v>13344</v>
+        <v>17030</v>
       </c>
       <c r="H11" t="n">
-        <v>11737</v>
+        <v>19993</v>
       </c>
       <c r="I11" t="n">
-        <v>67090</v>
+        <v>68452</v>
       </c>
       <c r="J11" t="n">
-        <v>12747</v>
+        <v>20216</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>201</v>
+        <v>544</v>
       </c>
       <c r="C12" t="n">
-        <v>45063</v>
+        <v>99247</v>
       </c>
       <c r="D12" t="n">
-        <v>6897</v>
+        <v>5314</v>
       </c>
       <c r="E12" t="n">
-        <v>2181</v>
+        <v>3147</v>
       </c>
       <c r="F12" t="n">
-        <v>650</v>
+        <v>287</v>
       </c>
       <c r="G12" t="n">
-        <v>13783</v>
+        <v>17848</v>
       </c>
       <c r="H12" t="n">
-        <v>9699</v>
+        <v>21731</v>
       </c>
       <c r="I12" t="n">
-        <v>68534</v>
+        <v>72246</v>
       </c>
       <c r="J12" t="n">
-        <v>13236</v>
+        <v>14610</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>220</v>
+        <v>660</v>
       </c>
       <c r="C13" t="n">
-        <v>51266</v>
+        <v>118067</v>
       </c>
       <c r="D13" t="n">
-        <v>7401</v>
+        <v>5803</v>
       </c>
       <c r="E13" t="n">
-        <v>1957</v>
+        <v>3497</v>
       </c>
       <c r="F13" t="n">
-        <v>662</v>
+        <v>283</v>
       </c>
       <c r="G13" t="n">
-        <v>13901</v>
+        <v>18388</v>
       </c>
       <c r="H13" t="n">
-        <v>14609</v>
+        <v>21623</v>
       </c>
       <c r="I13" t="n">
-        <v>70169</v>
+        <v>77579</v>
       </c>
       <c r="J13" t="n">
-        <v>23180</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>383</v>
-      </c>
-      <c r="C14" t="n">
-        <v>63153</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7640</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1811</v>
-      </c>
-      <c r="F14" t="n">
-        <v>706</v>
-      </c>
-      <c r="G14" t="n">
-        <v>15442</v>
-      </c>
-      <c r="H14" t="n">
-        <v>18302</v>
-      </c>
-      <c r="I14" t="n">
-        <v>67642</v>
-      </c>
-      <c r="J14" t="n">
-        <v>22393</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>447</v>
-      </c>
-      <c r="C15" t="n">
-        <v>73632</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8299</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1790</v>
-      </c>
-      <c r="F15" t="n">
-        <v>784</v>
-      </c>
-      <c r="G15" t="n">
-        <v>16770</v>
-      </c>
-      <c r="H15" t="n">
-        <v>19539</v>
-      </c>
-      <c r="I15" t="n">
-        <v>64899</v>
-      </c>
-      <c r="J15" t="n">
-        <v>23306</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>471</v>
-      </c>
-      <c r="C16" t="n">
-        <v>82642</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5878</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3227</v>
-      </c>
-      <c r="F16" t="n">
-        <v>866</v>
-      </c>
-      <c r="G16" t="n">
-        <v>17030</v>
-      </c>
-      <c r="H16" t="n">
-        <v>19993</v>
-      </c>
-      <c r="I16" t="n">
-        <v>68452</v>
-      </c>
-      <c r="J16" t="n">
-        <v>20216</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>544</v>
-      </c>
-      <c r="C17" t="n">
-        <v>99247</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5314</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3147</v>
-      </c>
-      <c r="F17" t="n">
-        <v>287</v>
-      </c>
-      <c r="G17" t="n">
-        <v>17848</v>
-      </c>
-      <c r="H17" t="n">
-        <v>21731</v>
-      </c>
-      <c r="I17" t="n">
-        <v>72246</v>
-      </c>
-      <c r="J17" t="n">
-        <v>14610</v>
+        <v>15041</v>
       </c>
     </row>
   </sheetData>
